--- a/fuentes/contenidos/grado11/guion03/SolicitudGrafica-MA_11_03_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion03/SolicitudGrafica-MA_11_03_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="10965" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="6630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -615,12 +615,6 @@
     <t>Gráfica de la funcion h(x)  de las observaciones que se muestren las imágenes del intervalo (-1,5, 1,5)</t>
   </si>
   <si>
-    <t>Gráfica de la funcion f(x)  de las observaciones que se muestren valores muy grandes en el dominio , es decir un intervalo como (-1000, 1000)</t>
-  </si>
-  <si>
-    <t>Gráfica de la funcion g(x)  de las observaciones que se muestren valores muy grandes en el dominio , es decir un intervalo como (-1000, 1000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gráfica de la funcion h(x)  de las observaciones que se muestren valores muy grandes en el dominio , </t>
   </si>
   <si>
@@ -628,6 +622,12 @@
   </si>
   <si>
     <t>Gráfica de la funcion f(x), y las rectas y=1 y y=0 punteadas como asintotas de la funcion</t>
+  </si>
+  <si>
+    <t>Gráfica de la funcion g(x)  de las observaciones que se muestren valores muy grandes en el dominio , es decir un intervalo como (-100, 100</t>
+  </si>
+  <si>
+    <t>Gráfica de la funcion f(x)  de las observaciones que se muestren valores muy grandes en el dominio , es decir un intervalo como (-100, 100)</t>
   </si>
 </sst>
 </file>
@@ -1514,6 +1514,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,7 +1599,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -3425,9 +3425,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3465,14 +3465,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="F2" s="69" t="s">
+      <c r="D2" s="78"/>
+      <c r="F2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="16"/>
@@ -3482,12 +3482,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="79">
         <v>11</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="D3" s="80"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
@@ -3497,10 +3497,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="5"/>
       <c r="F4" s="41" t="s">
         <v>55</v>
@@ -3518,10 +3518,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="5"/>
       <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3572,12 +3572,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -3655,7 +3655,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="69" t="s">
         <v>160</v>
       </c>
       <c r="K10" s="66" t="s">
@@ -3695,10 +3695,10 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="100" t="s">
+      <c r="K11" s="69" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="69" t="s">
         <v>163</v>
       </c>
       <c r="K12"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="69" t="s">
         <v>164</v>
       </c>
       <c r="K13"/>
@@ -3790,7 +3790,7 @@
         <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
-        <f t="shared" ref="F14:F21" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F14" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_03_REC10_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
@@ -3798,14 +3798,14 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f t="shared" ref="H14:H21" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H14" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_03_REC10_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="69" t="s">
         <v>165</v>
       </c>
       <c r="K14"/>
@@ -3843,7 +3843,7 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="100" t="s">
+      <c r="J15" s="69" t="s">
         <v>166</v>
       </c>
       <c r="K15"/>
@@ -3856,7 +3856,7 @@
         <v>147</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f t="shared" ref="C16:C39" si="9">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C16:C24" si="9">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -3866,7 +3866,7 @@
         <v>146</v>
       </c>
       <c r="F16" s="14" t="str">
-        <f t="shared" ref="F16:F39" si="10">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F16:F24" si="10">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_03_REC10_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
@@ -3874,14 +3874,14 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H16" s="14" t="str">
-        <f t="shared" ref="H16:H39" si="11">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H16:H24" si="11">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_03_REC10_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="69" t="s">
         <v>176</v>
       </c>
       <c r="K16"/>
@@ -3919,7 +3919,7 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="100" t="s">
+      <c r="J17" s="69" t="s">
         <v>177</v>
       </c>
       <c r="K17"/>
@@ -3957,7 +3957,7 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="69" t="s">
         <v>178</v>
       </c>
       <c r="K18" s="15"/>
@@ -3995,7 +3995,7 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="100" t="s">
+      <c r="J19" s="69" t="s">
         <v>179</v>
       </c>
       <c r="K19"/>
@@ -4033,8 +4033,8 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="100" t="s">
-        <v>180</v>
+      <c r="J20" s="69" t="s">
+        <v>184</v>
       </c>
       <c r="K20"/>
     </row>
@@ -4071,8 +4071,8 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="100" t="s">
-        <v>181</v>
+      <c r="J21" s="69" t="s">
+        <v>183</v>
       </c>
       <c r="K21"/>
     </row>
@@ -4109,8 +4109,8 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="100" t="s">
-        <v>182</v>
+      <c r="J22" s="69" t="s">
+        <v>180</v>
       </c>
       <c r="K22"/>
     </row>
@@ -4147,8 +4147,8 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="100" t="s">
-        <v>183</v>
+      <c r="J23" s="69" t="s">
+        <v>181</v>
       </c>
       <c r="K23"/>
     </row>
@@ -4185,8 +4185,8 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="100" t="s">
-        <v>184</v>
+      <c r="J24" s="69" t="s">
+        <v>182</v>
       </c>
       <c r="K24"/>
     </row>
@@ -4535,7 +4535,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" ref="F22:F53" si="12">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE($C$7,"_",$A51,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I51="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F51:F53" si="12">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE($C$7,"_",$A51,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I51="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -4543,7 +4543,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f t="shared" ref="H22:H53" si="13">IF(AND(I51&lt;&gt;"",I51&lt;&gt;0),IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE($C$7,"_",$A51,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H51:H53" si="13">IF(AND(I51&lt;&gt;"",I51&lt;&gt;0),IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE($C$7,"_",$A51,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -5158,25 +5158,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5184,11 +5184,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="34"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -5239,11 +5239,11 @@
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="96" t="str">
+      <c r="D5" s="97" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="34"/>
       <c r="H5" s="24" t="s">
         <v>22</v>
@@ -5288,12 +5288,12 @@
       <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="82" t="str">
+      <c r="D7" s="83" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
@@ -5387,14 +5387,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
       <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
@@ -5427,12 +5427,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
       <c r="J15" s="24">
         <v>12</v>
       </c>
@@ -5472,12 +5472,12 @@
       <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="90" t="str">
+      <c r="D17" s="91" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
       <c r="J17" s="24">
         <v>14</v>
       </c>
@@ -5493,12 +5493,12 @@
       <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="82" t="str">
+      <c r="D18" s="83" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
       <c r="J18" s="24">
         <v>15</v>
       </c>
@@ -5890,41 +5890,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
